--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление на часть трудового опуска.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление на часть трудового опуска.xlsx
@@ -66,9 +66,6 @@
     <t>Начальник структурного подразделения______________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">     Прошу предоставить мне часть ежегодного трудового отпуска                                     на ____ календарных дней с __________________ 2019</t>
-  </si>
-  <si>
     <t>Начальник производства</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Инспектор по кадрам                             ___________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Прошу предоставить мне часть ежегодного трудового отпуска                                     на ____ календарных дней с __________________</t>
   </si>
 </sst>
 </file>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
     </row>
     <row r="13" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -788,7 +788,7 @@
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -799,12 +799,12 @@
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -815,7 +815,7 @@
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -836,7 +836,7 @@
     </row>
     <row r="32" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -863,7 +863,7 @@
       <c r="D37" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HAdiLLGoSU3tt0lCK5X30Xc3qW0khVX77Fd1JOWQLqr8lSaav0eY4qdZnov69FTWyZYwb8oD8jJV8fRjspxvfA==" saltValue="h1lY4Rj8R/+YCbElV07nmw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A3:B3"/>

--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление на часть трудового опуска.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление на часть трудового опуска.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Отдел кадров\ЗАЯВЛЕНИЯ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Документация\ЗАЯВЛЕНИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD604B9-5E5D-4E1C-8AC3-0264AEBF0F82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="часть отпуска" sheetId="1" r:id="rId1"/>
@@ -72,9 +73,6 @@
     <t xml:space="preserve">Заместитель директора </t>
   </si>
   <si>
-    <t>______________________________________</t>
-  </si>
-  <si>
     <t>_____________________________</t>
   </si>
   <si>
@@ -82,12 +80,15 @@
   </si>
   <si>
     <t xml:space="preserve">     Прошу предоставить мне часть ежегодного трудового отпуска                                     на ____ календарных дней с __________________</t>
+  </si>
+  <si>
+    <t>____________________________</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -226,6 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,6 +347,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -380,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -555,11 +591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,9 +611,9 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
@@ -602,10 +638,10 @@
       <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
@@ -695,12 +731,12 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -712,10 +748,10 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="28"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -727,10 +763,10 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -742,12 +778,12 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -779,52 +815,53 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
@@ -835,12 +872,12 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="A32" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
@@ -851,16 +888,16 @@
       <c r="F33" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
